--- a/newman/excel/Statistics Tools.xlsx
+++ b/newman/excel/Statistics Tools.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan.Newman\Dropbox\github\SanJacMath.github.io\SanJacMath.github.io\newman\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C86B3B7-C8E1-4F4B-8A50-57C54EDC9E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D44D2A9-E633-448D-92D6-E044F97F0DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="rcXsiQanbL2r4AmyuKYK51R7ekUrMoOnE8dsLOeIHWzFuM13GiTRxSDhaBnLxwUqPKU1fyCxUr07WUjZXnmnsA==" workbookSaltValue="m/kk5DdrF4Eepqh4cVVLjw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="4230" yWindow="1695" windowWidth="22455" windowHeight="11295" tabRatio="769" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="769" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SampleStats" sheetId="1" r:id="rId1"/>
@@ -5270,9 +5270,7 @@
         <f>IF(H4&lt;&gt;"","",_xlfn.F.DIST.RT(K6,H6,H7))</f>
         <v/>
       </c>
-      <c r="N6" s="43">
-        <v>0.05</v>
-      </c>
+      <c r="N6" s="43"/>
       <c r="O6" s="23" t="str">
         <f>IF(H4&lt;&gt;"","",IF(ISBLANK(N6),"",IF(OR(NOT(ISNUMBER(N6)),N6&gt;=1,N6&lt;=0),"",_xlfn.F.INV.RT(N6,H6,H7))))</f>
         <v/>
